--- a/Code/Results/Cases/Case_5_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_231/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.87322614152175</v>
+        <v>17.773194156146</v>
       </c>
       <c r="C2">
-        <v>11.66524453137756</v>
+        <v>7.791983378675781</v>
       </c>
       <c r="D2">
-        <v>5.086483589937584</v>
+        <v>8.239479812129757</v>
       </c>
       <c r="E2">
-        <v>7.118926967308174</v>
+        <v>12.36374021842432</v>
       </c>
       <c r="F2">
-        <v>23.03440664684034</v>
+        <v>33.83264864516157</v>
       </c>
       <c r="I2">
-        <v>14.86631775072208</v>
+        <v>24.73480789260679</v>
       </c>
       <c r="J2">
-        <v>5.470044011590882</v>
+        <v>9.581487980166377</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.617633974614598</v>
+        <v>11.48276104519299</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.28953848192782</v>
+        <v>18.03796723850547</v>
       </c>
       <c r="O2">
-        <v>16.92474870646985</v>
+        <v>25.9092512262303</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.5224228144954</v>
+        <v>17.34527673506544</v>
       </c>
       <c r="C3">
-        <v>11.02609819496167</v>
+        <v>7.480115152201104</v>
       </c>
       <c r="D3">
-        <v>5.001483065682543</v>
+        <v>8.239041773105118</v>
       </c>
       <c r="E3">
-        <v>7.146452085688878</v>
+        <v>12.39110689749546</v>
       </c>
       <c r="F3">
-        <v>22.64163922142204</v>
+        <v>33.88638093728091</v>
       </c>
       <c r="I3">
-        <v>14.97725895773678</v>
+        <v>24.83563599051509</v>
       </c>
       <c r="J3">
-        <v>5.521674361214909</v>
+        <v>9.601598045439774</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.411755075562311</v>
+        <v>11.46747575642974</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.41754893478596</v>
+        <v>18.08465470113758</v>
       </c>
       <c r="O3">
-        <v>16.74447419782682</v>
+        <v>25.97065680667476</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.65643653104962</v>
+        <v>17.07936528284242</v>
       </c>
       <c r="C4">
-        <v>10.61394784476746</v>
+        <v>7.280451675780372</v>
       </c>
       <c r="D4">
-        <v>4.950165420365789</v>
+        <v>8.239636584563442</v>
       </c>
       <c r="E4">
-        <v>7.166062439416657</v>
+        <v>12.40921478516403</v>
       </c>
       <c r="F4">
-        <v>22.41763017218317</v>
+        <v>33.92738678865055</v>
       </c>
       <c r="I4">
-        <v>15.05832861664704</v>
+        <v>24.90240761032847</v>
       </c>
       <c r="J4">
-        <v>5.554484668498405</v>
+        <v>9.614612442509172</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.285173794491465</v>
+        <v>11.45953316998233</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.49964735592661</v>
+        <v>18.11510521220662</v>
       </c>
       <c r="O4">
-        <v>16.64812356966394</v>
+        <v>26.01416566149579</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29236655895149</v>
+        <v>16.97036124088553</v>
       </c>
       <c r="C5">
-        <v>10.44111006502254</v>
+        <v>7.197105834763712</v>
       </c>
       <c r="D5">
-        <v>4.929492771771878</v>
+        <v>8.240097022751005</v>
       </c>
       <c r="E5">
-        <v>7.174722616608201</v>
+        <v>12.4169224431989</v>
       </c>
       <c r="F5">
-        <v>22.33065507815271</v>
+        <v>33.94610871400051</v>
       </c>
       <c r="I5">
-        <v>15.0944774731946</v>
+        <v>24.93083900411933</v>
       </c>
       <c r="J5">
-        <v>5.568137079931903</v>
+        <v>9.620084030234183</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.233616207418886</v>
+        <v>11.45666184680697</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.53397430967061</v>
+        <v>18.12796355970592</v>
       </c>
       <c r="O5">
-        <v>16.6123904233801</v>
+        <v>26.03335261239151</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.23124127502723</v>
+        <v>16.95222699757571</v>
       </c>
       <c r="C6">
-        <v>10.41211809191913</v>
+        <v>7.183149023794884</v>
       </c>
       <c r="D6">
-        <v>4.926075157650483</v>
+        <v>8.240186671440535</v>
       </c>
       <c r="E6">
-        <v>7.176200664136073</v>
+        <v>12.41822215161759</v>
       </c>
       <c r="F6">
-        <v>22.31647289761291</v>
+        <v>33.94933886298966</v>
       </c>
       <c r="I6">
-        <v>15.10066382311173</v>
+        <v>24.93563374640724</v>
       </c>
       <c r="J6">
-        <v>5.570421169567157</v>
+        <v>9.621002750475995</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.225058694380479</v>
+        <v>11.45620720349895</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.53972665677722</v>
+        <v>18.13012585379857</v>
       </c>
       <c r="O6">
-        <v>16.60666781053335</v>
+        <v>26.03662647772468</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.65157166246195</v>
+        <v>17.07789761132716</v>
       </c>
       <c r="C7">
-        <v>10.61163655423182</v>
+        <v>7.279335561414481</v>
       </c>
       <c r="D7">
-        <v>4.949885624703394</v>
+        <v>8.239641910239058</v>
       </c>
       <c r="E7">
-        <v>7.166176542047562</v>
+        <v>12.40931740241285</v>
       </c>
       <c r="F7">
-        <v>22.41643975731717</v>
+        <v>33.92763113886452</v>
       </c>
       <c r="I7">
-        <v>15.05880371788645</v>
+        <v>24.9027861023848</v>
       </c>
       <c r="J7">
-        <v>5.554667644095853</v>
+        <v>9.614685552951471</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.284478275812696</v>
+        <v>11.45949296377202</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.50010678457978</v>
+        <v>18.11527680315373</v>
       </c>
       <c r="O7">
-        <v>16.64762747137245</v>
+        <v>26.01441852949608</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40807234543767</v>
+        <v>17.62639587843995</v>
       </c>
       <c r="C8">
-        <v>11.44899631401459</v>
+        <v>7.686189513204181</v>
       </c>
       <c r="D8">
-        <v>5.057006354276964</v>
+        <v>8.239150021737963</v>
       </c>
       <c r="E8">
-        <v>7.127847513069546</v>
+        <v>12.37290576458991</v>
       </c>
       <c r="F8">
-        <v>22.89542346460328</v>
+        <v>33.84951033247263</v>
       </c>
       <c r="I8">
-        <v>14.90179369354097</v>
+        <v>24.76856333501077</v>
       </c>
       <c r="J8">
-        <v>5.487617839350089</v>
+        <v>9.588283826600232</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.546722281469933</v>
+        <v>11.47719285776912</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.3329445167753</v>
+        <v>18.05369527576094</v>
       </c>
       <c r="O8">
-        <v>16.85957194759273</v>
+        <v>25.9292171267847</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.63256922424488</v>
+        <v>18.67048084795372</v>
       </c>
       <c r="C9">
-        <v>12.93234692144471</v>
+        <v>8.416382288640627</v>
       </c>
       <c r="D9">
-        <v>5.273112697914195</v>
+        <v>8.245000668955406</v>
       </c>
       <c r="E9">
-        <v>7.07476929708757</v>
+        <v>12.31183269710247</v>
       </c>
       <c r="F9">
-        <v>23.97027416805581</v>
+        <v>33.76003277748693</v>
       </c>
       <c r="I9">
-        <v>14.70339538224505</v>
+        <v>24.54399768112118</v>
       </c>
       <c r="J9">
-        <v>5.364789854977365</v>
+        <v>9.541779362619828</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.056819889411592</v>
+        <v>11.52322913442204</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.03336230367986</v>
+        <v>17.94705256304993</v>
       </c>
       <c r="O9">
-        <v>17.39182841443772</v>
+        <v>25.80833122873813</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.76509460338497</v>
+        <v>19.41039411676416</v>
       </c>
       <c r="C10">
-        <v>13.92341972330293</v>
+        <v>8.908498719993192</v>
       </c>
       <c r="D10">
-        <v>5.434411456928442</v>
+        <v>8.253400555665902</v>
       </c>
       <c r="E10">
-        <v>7.050067635840129</v>
+        <v>12.27323016766589</v>
       </c>
       <c r="F10">
-        <v>24.8412288370762</v>
+        <v>33.73327545391878</v>
       </c>
       <c r="I10">
-        <v>14.63398815524494</v>
+        <v>24.40265162616972</v>
       </c>
       <c r="J10">
-        <v>5.279618752039918</v>
+        <v>9.510795320148732</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.42561469353481</v>
+        <v>11.56378698384841</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.83119677554633</v>
+        <v>17.8772563251918</v>
       </c>
       <c r="O10">
-        <v>17.8572454834372</v>
+        <v>25.74783805944563</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.68320986257487</v>
+        <v>19.73959102735308</v>
       </c>
       <c r="C11">
-        <v>14.35267661328845</v>
+        <v>9.122235878417753</v>
       </c>
       <c r="D11">
-        <v>5.508105599746012</v>
+        <v>8.258100060962267</v>
       </c>
       <c r="E11">
-        <v>7.042122447524892</v>
+        <v>12.25702360256396</v>
       </c>
       <c r="F11">
-        <v>25.25465668993733</v>
+        <v>33.72958175584942</v>
       </c>
       <c r="I11">
-        <v>14.62115506007839</v>
+        <v>24.34350166672237</v>
       </c>
       <c r="J11">
-        <v>5.241926897184689</v>
+        <v>9.497384728146637</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.591465935952449</v>
+        <v>11.58366025738705</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.74331781398206</v>
+        <v>17.84735075554639</v>
       </c>
       <c r="O11">
-        <v>18.08564993702571</v>
+        <v>25.72649582001936</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.02348404077773</v>
+        <v>19.86307287512799</v>
       </c>
       <c r="C12">
-        <v>14.51211914800471</v>
+        <v>9.201681942856572</v>
       </c>
       <c r="D12">
-        <v>5.536039130806941</v>
+        <v>8.260004786324712</v>
       </c>
       <c r="E12">
-        <v>7.039603343793703</v>
+        <v>12.25108080249981</v>
       </c>
       <c r="F12">
-        <v>25.41364589143382</v>
+        <v>33.72940198988066</v>
       </c>
       <c r="I12">
-        <v>14.61917398699159</v>
+        <v>24.32184518108778</v>
       </c>
       <c r="J12">
-        <v>5.227801566907305</v>
+        <v>9.492404404612541</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.653949045843733</v>
+        <v>11.59138670365392</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.7106476958293</v>
+        <v>17.83629082520811</v>
       </c>
       <c r="O12">
-        <v>18.1745724693452</v>
+        <v>25.71930390462433</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.95052756894835</v>
+        <v>19.8365329649705</v>
       </c>
       <c r="C13">
-        <v>14.47791852886919</v>
+        <v>9.184638648298328</v>
       </c>
       <c r="D13">
-        <v>5.530022221267072</v>
+        <v>8.259589024100281</v>
       </c>
       <c r="E13">
-        <v>7.040123839843821</v>
+        <v>12.25235205706769</v>
       </c>
       <c r="F13">
-        <v>25.37929720024031</v>
+        <v>33.7293865044983</v>
       </c>
       <c r="I13">
-        <v>14.61946966356424</v>
+        <v>24.32647624764379</v>
       </c>
       <c r="J13">
-        <v>5.230837197242775</v>
+        <v>9.493472655363002</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.640507141790346</v>
+        <v>11.58971380390681</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.71765641474071</v>
+        <v>17.83866101859551</v>
       </c>
       <c r="O13">
-        <v>18.15531285199361</v>
+        <v>25.72081320837611</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.71135219253479</v>
+        <v>19.74977418406484</v>
       </c>
       <c r="C14">
-        <v>14.36585632024718</v>
+        <v>9.128802028067714</v>
       </c>
       <c r="D14">
-        <v>5.51040326639669</v>
+        <v>8.25825426314667</v>
       </c>
       <c r="E14">
-        <v>7.041905292748932</v>
+        <v>12.25653079366875</v>
       </c>
       <c r="F14">
-        <v>25.26768831378881</v>
+        <v>33.72954254085744</v>
       </c>
       <c r="I14">
-        <v>14.6209333220504</v>
+        <v>24.34170508654647</v>
       </c>
       <c r="J14">
-        <v>5.240761857774128</v>
+        <v>9.49697303267555</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.596613137348436</v>
+        <v>11.58429191345809</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.74061771991807</v>
+        <v>17.8464355479618</v>
       </c>
       <c r="O14">
-        <v>18.09291676833036</v>
+        <v>25.7258862925515</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.56388955768809</v>
+        <v>19.69647528380903</v>
       </c>
       <c r="C15">
-        <v>14.29681030373422</v>
+        <v>9.09440529588402</v>
       </c>
       <c r="D15">
-        <v>5.49838909383808</v>
+        <v>8.257452942421773</v>
       </c>
       <c r="E15">
-        <v>7.043060731292764</v>
+        <v>12.25911567836867</v>
       </c>
       <c r="F15">
-        <v>25.19964021164882</v>
+        <v>33.72979684130995</v>
       </c>
       <c r="I15">
-        <v>14.62221023394127</v>
+        <v>24.35112991839642</v>
       </c>
       <c r="J15">
-        <v>5.24686013113157</v>
+        <v>9.499129862164841</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.569683707157266</v>
+        <v>11.58099689224013</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.75476196555931</v>
+        <v>17.85123211891652</v>
       </c>
       <c r="O15">
-        <v>18.05501477057711</v>
+        <v>25.72910964396991</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.70405427710239</v>
+        <v>19.38872153362166</v>
       </c>
       <c r="C16">
-        <v>13.89493188853397</v>
+        <v>8.894323550732866</v>
       </c>
       <c r="D16">
-        <v>5.42960016051485</v>
+        <v>8.253111006966225</v>
       </c>
       <c r="E16">
-        <v>7.050654484152508</v>
+        <v>12.27431651343315</v>
       </c>
       <c r="F16">
-        <v>24.81455321092453</v>
+        <v>33.73368745186028</v>
       </c>
       <c r="I16">
-        <v>14.63521955888316</v>
+        <v>24.40662098891095</v>
       </c>
       <c r="J16">
-        <v>5.282102881023256</v>
+        <v>9.511685466576433</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.414733345473675</v>
+        <v>11.56251653840216</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.8370237689547</v>
+        <v>17.8792477953782</v>
       </c>
       <c r="O16">
-        <v>17.84265725738131</v>
+        <v>25.74935726972843</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.16331461809617</v>
+        <v>19.19794640109044</v>
       </c>
       <c r="C17">
-        <v>13.64285822506589</v>
+        <v>8.768958874030771</v>
       </c>
       <c r="D17">
-        <v>5.387468331522351</v>
+        <v>8.250671515118052</v>
       </c>
       <c r="E17">
-        <v>7.056167457934909</v>
+        <v>12.28398820746188</v>
       </c>
       <c r="F17">
-        <v>24.58269544557213</v>
+        <v>33.73824582807321</v>
       </c>
       <c r="I17">
-        <v>14.64812983556824</v>
+        <v>24.44198310502339</v>
       </c>
       <c r="J17">
-        <v>5.303990277995408</v>
+        <v>9.519562870518348</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.319151431985501</v>
+        <v>11.55154133511651</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.88854898255649</v>
+        <v>17.8969065997555</v>
       </c>
       <c r="O17">
-        <v>17.71668013517944</v>
+        <v>25.7633618343367</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.84739786622309</v>
+        <v>19.08752796346511</v>
       </c>
       <c r="C18">
-        <v>13.49583986137238</v>
+        <v>8.695900743450229</v>
       </c>
       <c r="D18">
-        <v>5.363266247807389</v>
+        <v>8.249351133133457</v>
       </c>
       <c r="E18">
-        <v>7.059647202951283</v>
+        <v>12.28967857230645</v>
       </c>
       <c r="F18">
-        <v>24.4509611298594</v>
+        <v>33.74166577204157</v>
       </c>
       <c r="I18">
-        <v>14.65730820729817</v>
+        <v>24.46280699988176</v>
       </c>
       <c r="J18">
-        <v>5.316678659138524</v>
+        <v>9.524158169785652</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.263997342901028</v>
+        <v>11.54536289552824</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.91856827918419</v>
+        <v>17.90723718373091</v>
       </c>
       <c r="O18">
-        <v>17.645790298445</v>
+        <v>25.77199815969126</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.73959036427573</v>
+        <v>19.05002738069454</v>
       </c>
       <c r="C19">
-        <v>13.44571317738902</v>
+        <v>8.67100222197752</v>
       </c>
       <c r="D19">
-        <v>5.355077754551969</v>
+        <v>8.24891832180796</v>
       </c>
       <c r="E19">
-        <v>7.06087794131932</v>
+        <v>12.2916271365527</v>
       </c>
       <c r="F19">
-        <v>24.40663844955398</v>
+        <v>33.7429607716459</v>
       </c>
       <c r="I19">
-        <v>14.66071133881856</v>
+        <v>24.46994077586876</v>
       </c>
       <c r="J19">
-        <v>5.320991896350395</v>
+        <v>9.525725136788378</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.24529404669728</v>
+        <v>11.54329414510557</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.92879757050093</v>
+        <v>17.9107647967697</v>
       </c>
       <c r="O19">
-        <v>17.62205662339603</v>
+        <v>25.7750220448337</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.22138360023052</v>
+        <v>19.21832697375975</v>
       </c>
       <c r="C20">
-        <v>13.66990228086545</v>
+        <v>8.782402924843295</v>
       </c>
       <c r="D20">
-        <v>5.391950263953546</v>
+        <v>8.250922647344547</v>
       </c>
       <c r="E20">
-        <v>7.055548514214875</v>
+        <v>12.28294545028604</v>
       </c>
       <c r="F20">
-        <v>24.60720932973588</v>
+        <v>33.73767798112758</v>
       </c>
       <c r="I20">
-        <v>14.6465727949394</v>
+        <v>24.43816858554848</v>
       </c>
       <c r="J20">
-        <v>5.301650073118844</v>
+        <v>9.518717642679539</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.329345050988959</v>
+        <v>11.55269580128215</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.88302422280906</v>
+        <v>17.89500881673666</v>
       </c>
       <c r="O20">
-        <v>17.72992799746726</v>
+        <v>25.76181085122946</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.78180388569338</v>
+        <v>19.77529017692303</v>
       </c>
       <c r="C21">
-        <v>14.39885603638728</v>
+        <v>9.145243329244634</v>
       </c>
       <c r="D21">
-        <v>5.516165234588297</v>
+        <v>8.258642928642596</v>
       </c>
       <c r="E21">
-        <v>7.041368618035635</v>
+        <v>12.25529812821105</v>
       </c>
       <c r="F21">
-        <v>25.30040486265788</v>
+        <v>33.72946363287274</v>
       </c>
       <c r="I21">
-        <v>14.62042380728681</v>
+        <v>24.33721184592989</v>
       </c>
       <c r="J21">
-        <v>5.237842763930859</v>
+        <v>9.495942231207913</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.609514923035281</v>
+        <v>11.58587903375433</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.73385676187755</v>
+        <v>17.84414480260944</v>
       </c>
       <c r="O21">
-        <v>18.11117781387657</v>
+        <v>25.72437204015517</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.75855701510419</v>
+        <v>20.13238550825274</v>
       </c>
       <c r="C22">
-        <v>14.85715937345267</v>
+        <v>9.373674055645516</v>
       </c>
       <c r="D22">
-        <v>5.597497435775031</v>
+        <v>8.264417313428361</v>
       </c>
       <c r="E22">
-        <v>7.034962746126432</v>
+        <v>12.23836119119736</v>
       </c>
       <c r="F22">
-        <v>25.76761090407028</v>
+        <v>33.7311994113404</v>
       </c>
       <c r="I22">
-        <v>14.62019962055863</v>
+        <v>24.27555847550035</v>
       </c>
       <c r="J22">
-        <v>5.197000469717532</v>
+        <v>9.481628077973125</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.790732972989767</v>
+        <v>11.6087351254181</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.6399207440505</v>
+        <v>17.81244457652703</v>
       </c>
       <c r="O22">
-        <v>18.37452631410694</v>
+        <v>25.7050913435646</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.24115977731728</v>
+        <v>19.94246501385165</v>
       </c>
       <c r="C23">
-        <v>14.61421034364758</v>
+        <v>9.252563098081163</v>
       </c>
       <c r="D23">
-        <v>5.554080976584162</v>
+        <v>8.261269141227032</v>
       </c>
       <c r="E23">
-        <v>7.038114342537045</v>
+        <v>12.24729729605762</v>
       </c>
       <c r="F23">
-        <v>25.51697247820118</v>
+        <v>33.72962323289714</v>
       </c>
       <c r="I23">
-        <v>14.61871457445588</v>
+        <v>24.30806742801804</v>
       </c>
       <c r="J23">
-        <v>5.218721363016984</v>
+        <v>9.489215708822121</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.694199993760563</v>
+        <v>11.59643074289298</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.68972371946374</v>
+        <v>17.82922267225659</v>
       </c>
       <c r="O23">
-        <v>18.23266555639724</v>
+        <v>25.7149066502062</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.19514631256664</v>
+        <v>19.20911521068522</v>
       </c>
       <c r="C24">
-        <v>13.65768219723007</v>
+        <v>8.776327932704849</v>
       </c>
       <c r="D24">
-        <v>5.389923918371033</v>
+        <v>8.250808854610938</v>
       </c>
       <c r="E24">
-        <v>7.055827373491769</v>
+        <v>12.28341647590803</v>
       </c>
       <c r="F24">
-        <v>24.5961217284277</v>
+        <v>33.73793221502814</v>
       </c>
       <c r="I24">
-        <v>14.64727127708222</v>
+        <v>24.43989159194389</v>
       </c>
       <c r="J24">
-        <v>5.302707752338928</v>
+        <v>9.519099563090203</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.324737143897508</v>
+        <v>11.55217345770135</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.88552073233802</v>
+        <v>17.89586624897873</v>
       </c>
       <c r="O24">
-        <v>17.72393385678955</v>
+        <v>25.76251022883805</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.80064610469218</v>
+        <v>18.39225837097892</v>
       </c>
       <c r="C25">
-        <v>12.54830884635841</v>
+        <v>8.22644019292348</v>
       </c>
       <c r="D25">
-        <v>5.21412470736805</v>
+        <v>8.242693582126648</v>
       </c>
       <c r="E25">
-        <v>7.086679886223803</v>
+        <v>12.32725174165337</v>
       </c>
       <c r="F25">
-        <v>23.66509330265396</v>
+        <v>33.77740024798908</v>
       </c>
       <c r="I25">
-        <v>14.74437354220696</v>
+        <v>24.60060289914231</v>
       </c>
       <c r="J25">
-        <v>5.397112360024407</v>
+        <v>9.55379900650971</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.919643820523134</v>
+        <v>11.50957929675196</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.11131686321277</v>
+        <v>17.9743963012453</v>
       </c>
       <c r="O25">
-        <v>17.23498053604445</v>
+        <v>25.83607082150789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_231/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.773194156146</v>
+        <v>20.87322614152174</v>
       </c>
       <c r="C2">
-        <v>7.791983378675781</v>
+        <v>11.66524453137763</v>
       </c>
       <c r="D2">
-        <v>8.239479812129757</v>
+        <v>5.086483589937496</v>
       </c>
       <c r="E2">
-        <v>12.36374021842432</v>
+        <v>7.118926967308174</v>
       </c>
       <c r="F2">
-        <v>33.83264864516157</v>
+        <v>23.03440664684026</v>
       </c>
       <c r="I2">
-        <v>24.73480789260679</v>
+        <v>14.86631775072208</v>
       </c>
       <c r="J2">
-        <v>9.581487980166377</v>
+        <v>5.470044011590917</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.48276104519299</v>
+        <v>7.61763397461456</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.03796723850547</v>
+        <v>12.28953848192779</v>
       </c>
       <c r="O2">
-        <v>25.9092512262303</v>
+        <v>16.9247487064698</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.34527673506544</v>
+        <v>19.52242281449541</v>
       </c>
       <c r="C3">
-        <v>7.480115152201104</v>
+        <v>11.02609819496154</v>
       </c>
       <c r="D3">
-        <v>8.239041773105118</v>
+        <v>5.001483065682437</v>
       </c>
       <c r="E3">
-        <v>12.39110689749546</v>
+        <v>7.1464520856887</v>
       </c>
       <c r="F3">
-        <v>33.88638093728091</v>
+        <v>22.64163922142195</v>
       </c>
       <c r="I3">
-        <v>24.83563599051509</v>
+        <v>14.9772589577367</v>
       </c>
       <c r="J3">
-        <v>9.601598045439774</v>
+        <v>5.521674361214878</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.46747575642974</v>
+        <v>7.411755075562255</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.08465470113758</v>
+        <v>12.41754893478596</v>
       </c>
       <c r="O3">
-        <v>25.97065680667476</v>
+        <v>16.7444741978268</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.07936528284242</v>
+        <v>18.65643653104964</v>
       </c>
       <c r="C4">
-        <v>7.280451675780372</v>
+        <v>10.61394784476754</v>
       </c>
       <c r="D4">
-        <v>8.239636584563442</v>
+        <v>4.950165420365729</v>
       </c>
       <c r="E4">
-        <v>12.40921478516403</v>
+        <v>7.16606243941672</v>
       </c>
       <c r="F4">
-        <v>33.92738678865055</v>
+        <v>22.4176301721832</v>
       </c>
       <c r="I4">
-        <v>24.90240761032847</v>
+        <v>15.05832861664715</v>
       </c>
       <c r="J4">
-        <v>9.614612442509172</v>
+        <v>5.554484668498439</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.45953316998233</v>
+        <v>7.285173794491451</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.11510521220662</v>
+        <v>12.49964735592661</v>
       </c>
       <c r="O4">
-        <v>26.01416566149579</v>
+        <v>16.64812356966399</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.97036124088553</v>
+        <v>18.29236655895145</v>
       </c>
       <c r="C5">
-        <v>7.197105834763712</v>
+        <v>10.44111006502244</v>
       </c>
       <c r="D5">
-        <v>8.240097022751005</v>
+        <v>4.929492771771811</v>
       </c>
       <c r="E5">
-        <v>12.4169224431989</v>
+        <v>7.174722616608141</v>
       </c>
       <c r="F5">
-        <v>33.94610871400051</v>
+        <v>22.33065507815241</v>
       </c>
       <c r="I5">
-        <v>24.93083900411933</v>
+        <v>15.09447747319439</v>
       </c>
       <c r="J5">
-        <v>9.620084030234183</v>
+        <v>5.568137079931803</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.45666184680697</v>
+        <v>7.233616207418833</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.12796355970592</v>
+        <v>12.53397430967055</v>
       </c>
       <c r="O5">
-        <v>26.03335261239151</v>
+        <v>16.61239042337989</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.95222699757571</v>
+        <v>18.23124127502728</v>
       </c>
       <c r="C6">
-        <v>7.183149023794884</v>
+        <v>10.41211809191919</v>
       </c>
       <c r="D6">
-        <v>8.240186671440535</v>
+        <v>4.926075157650478</v>
       </c>
       <c r="E6">
-        <v>12.41822215161759</v>
+        <v>7.176200664136013</v>
       </c>
       <c r="F6">
-        <v>33.94933886298966</v>
+        <v>22.31647289761336</v>
       </c>
       <c r="I6">
-        <v>24.93563374640724</v>
+        <v>15.10066382311203</v>
       </c>
       <c r="J6">
-        <v>9.621002750475995</v>
+        <v>5.57042116956706</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.45620720349895</v>
+        <v>7.225058694380443</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.13012585379857</v>
+        <v>12.53972665677735</v>
       </c>
       <c r="O6">
-        <v>26.03662647772468</v>
+        <v>16.60666781053369</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.07789761132716</v>
+        <v>18.65157166246199</v>
       </c>
       <c r="C7">
-        <v>7.279335561414481</v>
+        <v>10.61163655423203</v>
       </c>
       <c r="D7">
-        <v>8.239641910239058</v>
+        <v>4.949885624703548</v>
       </c>
       <c r="E7">
-        <v>12.40931740241285</v>
+        <v>7.166176542047683</v>
       </c>
       <c r="F7">
-        <v>33.92763113886452</v>
+        <v>22.4164397573172</v>
       </c>
       <c r="I7">
-        <v>24.9027861023848</v>
+        <v>15.05880371788656</v>
       </c>
       <c r="J7">
-        <v>9.614685552951471</v>
+        <v>5.554667644095885</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.45949296377202</v>
+        <v>7.284478275812623</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.11527680315373</v>
+        <v>12.50010678457978</v>
       </c>
       <c r="O7">
-        <v>26.01441852949608</v>
+        <v>16.6476274713724</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.62639587843995</v>
+        <v>20.4080723454377</v>
       </c>
       <c r="C8">
-        <v>7.686189513204181</v>
+        <v>11.4489963140145</v>
       </c>
       <c r="D8">
-        <v>8.239150021737963</v>
+        <v>5.057006354276818</v>
       </c>
       <c r="E8">
-        <v>12.37290576458991</v>
+        <v>7.127847513069488</v>
       </c>
       <c r="F8">
-        <v>33.84951033247263</v>
+        <v>22.89542346460313</v>
       </c>
       <c r="I8">
-        <v>24.76856333501077</v>
+        <v>14.90179369354077</v>
       </c>
       <c r="J8">
-        <v>9.588283826600232</v>
+        <v>5.487617839350089</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.47719285776912</v>
+        <v>7.546722281469909</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.05369527576094</v>
+        <v>12.33294451677524</v>
       </c>
       <c r="O8">
-        <v>25.9292171267847</v>
+        <v>16.85957194759263</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.67048084795372</v>
+        <v>23.63256922424491</v>
       </c>
       <c r="C9">
-        <v>8.416382288640627</v>
+        <v>12.9323469214447</v>
       </c>
       <c r="D9">
-        <v>8.245000668955406</v>
+        <v>5.273112697914248</v>
       </c>
       <c r="E9">
-        <v>12.31183269710247</v>
+        <v>7.074769297087573</v>
       </c>
       <c r="F9">
-        <v>33.76003277748693</v>
+        <v>23.97027416805573</v>
       </c>
       <c r="I9">
-        <v>24.54399768112118</v>
+        <v>14.70339538224498</v>
       </c>
       <c r="J9">
-        <v>9.541779362619828</v>
+        <v>5.364789854977365</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.52322913442204</v>
+        <v>8.05681988941161</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.94705256304993</v>
+        <v>12.03336230367986</v>
       </c>
       <c r="O9">
-        <v>25.80833122873813</v>
+        <v>17.39182841443767</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.41039411676416</v>
+        <v>25.76509460338497</v>
       </c>
       <c r="C10">
-        <v>8.908498719993192</v>
+        <v>13.92341972330307</v>
       </c>
       <c r="D10">
-        <v>8.253400555665902</v>
+        <v>5.434411456928288</v>
       </c>
       <c r="E10">
-        <v>12.27323016766589</v>
+        <v>7.050067635840242</v>
       </c>
       <c r="F10">
-        <v>33.73327545391878</v>
+        <v>24.84122883707615</v>
       </c>
       <c r="I10">
-        <v>24.40265162616972</v>
+        <v>14.63398815524498</v>
       </c>
       <c r="J10">
-        <v>9.510795320148732</v>
+        <v>5.279618752040048</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.56378698384841</v>
+        <v>8.425614693534786</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.8772563251918</v>
+        <v>11.83119677554632</v>
       </c>
       <c r="O10">
-        <v>25.74783805944563</v>
+        <v>17.85724548343718</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.73959102735308</v>
+        <v>26.6832098625748</v>
       </c>
       <c r="C11">
-        <v>9.122235878417753</v>
+        <v>14.35267661328862</v>
       </c>
       <c r="D11">
-        <v>8.258100060962267</v>
+        <v>5.508105599745931</v>
       </c>
       <c r="E11">
-        <v>12.25702360256396</v>
+        <v>7.042122447524887</v>
       </c>
       <c r="F11">
-        <v>33.72958175584942</v>
+        <v>25.25465668993744</v>
       </c>
       <c r="I11">
-        <v>24.34350166672237</v>
+        <v>14.62115506007856</v>
       </c>
       <c r="J11">
-        <v>9.497384728146637</v>
+        <v>5.241926897184751</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.58366025738705</v>
+        <v>8.591465935952421</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.84735075554639</v>
+        <v>11.74331781398212</v>
       </c>
       <c r="O11">
-        <v>25.72649582001936</v>
+        <v>18.08564993702586</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.86307287512799</v>
+        <v>27.02348404077773</v>
       </c>
       <c r="C12">
-        <v>9.201681942856572</v>
+        <v>14.51211914800446</v>
       </c>
       <c r="D12">
-        <v>8.260004786324712</v>
+        <v>5.536039130806804</v>
       </c>
       <c r="E12">
-        <v>12.25108080249981</v>
+        <v>7.039603343793746</v>
       </c>
       <c r="F12">
-        <v>33.72940198988066</v>
+        <v>25.41364589143386</v>
       </c>
       <c r="I12">
-        <v>24.32184518108778</v>
+        <v>14.6191739869916</v>
       </c>
       <c r="J12">
-        <v>9.492404404612541</v>
+        <v>5.227801566907434</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.59138670365392</v>
+        <v>8.653949045843794</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.83629082520811</v>
+        <v>11.71064769582929</v>
       </c>
       <c r="O12">
-        <v>25.71930390462433</v>
+        <v>18.17457246934526</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.8365329649705</v>
+        <v>26.95052756894835</v>
       </c>
       <c r="C13">
-        <v>9.184638648298328</v>
+        <v>14.47791852886936</v>
       </c>
       <c r="D13">
-        <v>8.259589024100281</v>
+        <v>5.530022221267152</v>
       </c>
       <c r="E13">
-        <v>12.25235205706769</v>
+        <v>7.040123839843927</v>
       </c>
       <c r="F13">
-        <v>33.7293865044983</v>
+        <v>25.3792972002403</v>
       </c>
       <c r="I13">
-        <v>24.32647624764379</v>
+        <v>14.61946966356425</v>
       </c>
       <c r="J13">
-        <v>9.493472655363002</v>
+        <v>5.230837197242807</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.58971380390681</v>
+        <v>8.640507141790353</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.83866101859551</v>
+        <v>11.71765641474068</v>
       </c>
       <c r="O13">
-        <v>25.72081320837611</v>
+        <v>18.15531285199357</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.74977418406484</v>
+        <v>26.7113521925348</v>
       </c>
       <c r="C14">
-        <v>9.128802028067714</v>
+        <v>14.36585632024711</v>
       </c>
       <c r="D14">
-        <v>8.25825426314667</v>
+        <v>5.510403266396642</v>
       </c>
       <c r="E14">
-        <v>12.25653079366875</v>
+        <v>7.041905292748927</v>
       </c>
       <c r="F14">
-        <v>33.72954254085744</v>
+        <v>25.26768831378884</v>
       </c>
       <c r="I14">
-        <v>24.34170508654647</v>
+        <v>14.6209333220504</v>
       </c>
       <c r="J14">
-        <v>9.49697303267555</v>
+        <v>5.240761857774097</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.58429191345809</v>
+        <v>8.596613137348447</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.8464355479618</v>
+        <v>11.74061771991813</v>
       </c>
       <c r="O14">
-        <v>25.7258862925515</v>
+        <v>18.09291676833037</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.69647528380903</v>
+        <v>26.56388955768807</v>
       </c>
       <c r="C15">
-        <v>9.09440529588402</v>
+        <v>14.29681030373414</v>
       </c>
       <c r="D15">
-        <v>8.257452942421773</v>
+        <v>5.498389093838086</v>
       </c>
       <c r="E15">
-        <v>12.25911567836867</v>
+        <v>7.04306073129271</v>
       </c>
       <c r="F15">
-        <v>33.72979684130995</v>
+        <v>25.19964021164882</v>
       </c>
       <c r="I15">
-        <v>24.35112991839642</v>
+        <v>14.62221023394127</v>
       </c>
       <c r="J15">
-        <v>9.499129862164841</v>
+        <v>5.246860131131537</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.58099689224013</v>
+        <v>8.569683707157258</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.85123211891652</v>
+        <v>11.75476196555927</v>
       </c>
       <c r="O15">
-        <v>25.72910964396991</v>
+        <v>18.05501477057711</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.38872153362166</v>
+        <v>25.70405427710242</v>
       </c>
       <c r="C16">
-        <v>8.894323550732866</v>
+        <v>13.89493188853395</v>
       </c>
       <c r="D16">
-        <v>8.253111006966225</v>
+        <v>5.429600160514754</v>
       </c>
       <c r="E16">
-        <v>12.27431651343315</v>
+        <v>7.050654484152514</v>
       </c>
       <c r="F16">
-        <v>33.73368745186028</v>
+        <v>24.81455321092442</v>
       </c>
       <c r="I16">
-        <v>24.40662098891095</v>
+        <v>14.63521955888307</v>
       </c>
       <c r="J16">
-        <v>9.511685466576433</v>
+        <v>5.282102881023357</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.56251653840216</v>
+        <v>8.414733345473687</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.8792477953782</v>
+        <v>11.83702376895459</v>
       </c>
       <c r="O16">
-        <v>25.74935726972843</v>
+        <v>17.84265725738125</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.19794640109044</v>
+        <v>25.16331461809623</v>
       </c>
       <c r="C17">
-        <v>8.768958874030771</v>
+        <v>13.64285822506597</v>
       </c>
       <c r="D17">
-        <v>8.250671515118052</v>
+        <v>5.387468331522345</v>
       </c>
       <c r="E17">
-        <v>12.28398820746188</v>
+        <v>7.056167457934783</v>
       </c>
       <c r="F17">
-        <v>33.73824582807321</v>
+        <v>24.58269544557204</v>
       </c>
       <c r="I17">
-        <v>24.44198310502339</v>
+        <v>14.64812983556817</v>
       </c>
       <c r="J17">
-        <v>9.519562870518348</v>
+        <v>5.303990277995341</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.55154133511651</v>
+        <v>8.319151431985434</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.8969065997555</v>
+        <v>11.88854898255649</v>
       </c>
       <c r="O17">
-        <v>25.7633618343367</v>
+        <v>17.71668013517936</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.08752796346511</v>
+        <v>24.84739786622322</v>
       </c>
       <c r="C18">
-        <v>8.695900743450229</v>
+        <v>13.49583986137219</v>
       </c>
       <c r="D18">
-        <v>8.249351133133457</v>
+        <v>5.363266247807371</v>
       </c>
       <c r="E18">
-        <v>12.28967857230645</v>
+        <v>7.059647202951163</v>
       </c>
       <c r="F18">
-        <v>33.74166577204157</v>
+        <v>24.45096112985913</v>
       </c>
       <c r="I18">
-        <v>24.46280699988176</v>
+        <v>14.65730820729783</v>
       </c>
       <c r="J18">
-        <v>9.524158169785652</v>
+        <v>5.316678659138492</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.54536289552824</v>
+        <v>8.263997342901003</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.90723718373091</v>
+        <v>11.91856827918413</v>
       </c>
       <c r="O18">
-        <v>25.77199815969126</v>
+        <v>17.64579029844476</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.05002738069454</v>
+        <v>24.7395903642757</v>
       </c>
       <c r="C19">
-        <v>8.67100222197752</v>
+        <v>13.445713177389</v>
       </c>
       <c r="D19">
-        <v>8.24891832180796</v>
+        <v>5.355077754552009</v>
       </c>
       <c r="E19">
-        <v>12.2916271365527</v>
+        <v>7.060877941319371</v>
       </c>
       <c r="F19">
-        <v>33.7429607716459</v>
+        <v>24.40663844955404</v>
       </c>
       <c r="I19">
-        <v>24.46994077586876</v>
+        <v>14.66071133881857</v>
       </c>
       <c r="J19">
-        <v>9.525725136788378</v>
+        <v>5.320991896350328</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.54329414510557</v>
+        <v>8.245294046697303</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.9107647967697</v>
+        <v>11.92879757050097</v>
       </c>
       <c r="O19">
-        <v>25.7750220448337</v>
+        <v>17.62205662339607</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.21832697375975</v>
+        <v>25.22138360023053</v>
       </c>
       <c r="C20">
-        <v>8.782402924843295</v>
+        <v>13.66990228086531</v>
       </c>
       <c r="D20">
-        <v>8.250922647344547</v>
+        <v>5.391950263953416</v>
       </c>
       <c r="E20">
-        <v>12.28294545028604</v>
+        <v>7.055548514214867</v>
       </c>
       <c r="F20">
-        <v>33.73767798112758</v>
+        <v>24.60720932973589</v>
       </c>
       <c r="I20">
-        <v>24.43816858554848</v>
+        <v>14.64657279493941</v>
       </c>
       <c r="J20">
-        <v>9.518717642679539</v>
+        <v>5.301650073118908</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.55269580128215</v>
+        <v>8.329345050988959</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.89500881673666</v>
+        <v>11.88302422280906</v>
       </c>
       <c r="O20">
-        <v>25.76181085122946</v>
+        <v>17.72992799746735</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.77529017692303</v>
+        <v>26.78180388569341</v>
       </c>
       <c r="C21">
-        <v>9.145243329244634</v>
+        <v>14.39885603638735</v>
       </c>
       <c r="D21">
-        <v>8.258642928642596</v>
+        <v>5.516165234588192</v>
       </c>
       <c r="E21">
-        <v>12.25529812821105</v>
+        <v>7.041368618035572</v>
       </c>
       <c r="F21">
-        <v>33.72946363287274</v>
+        <v>25.30040486265775</v>
       </c>
       <c r="I21">
-        <v>24.33721184592989</v>
+        <v>14.62042380728673</v>
       </c>
       <c r="J21">
-        <v>9.495942231207913</v>
+        <v>5.237842763930858</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.58587903375433</v>
+        <v>8.609514923035258</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.84414480260944</v>
+        <v>11.73385676187749</v>
       </c>
       <c r="O21">
-        <v>25.72437204015517</v>
+        <v>18.11117781387649</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.13238550825274</v>
+        <v>27.75855701510426</v>
       </c>
       <c r="C22">
-        <v>9.373674055645516</v>
+        <v>14.85715937345264</v>
       </c>
       <c r="D22">
-        <v>8.264417313428361</v>
+        <v>5.597497435775018</v>
       </c>
       <c r="E22">
-        <v>12.23836119119736</v>
+        <v>7.034962746126607</v>
       </c>
       <c r="F22">
-        <v>33.7311994113404</v>
+        <v>25.76761090407023</v>
       </c>
       <c r="I22">
-        <v>24.27555847550035</v>
+        <v>14.62019962055854</v>
       </c>
       <c r="J22">
-        <v>9.481628077973125</v>
+        <v>5.197000469717565</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.6087351254181</v>
+        <v>8.790732972989833</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.81244457652703</v>
+        <v>11.63992074405047</v>
       </c>
       <c r="O22">
-        <v>25.7050913435646</v>
+        <v>18.37452631410687</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.94246501385165</v>
+        <v>27.24115977731725</v>
       </c>
       <c r="C23">
-        <v>9.252563098081163</v>
+        <v>14.61421034364751</v>
       </c>
       <c r="D23">
-        <v>8.261269141227032</v>
+        <v>5.554080976584263</v>
       </c>
       <c r="E23">
-        <v>12.24729729605762</v>
+        <v>7.038114342537039</v>
       </c>
       <c r="F23">
-        <v>33.72962323289714</v>
+        <v>25.51697247820121</v>
       </c>
       <c r="I23">
-        <v>24.30806742801804</v>
+        <v>14.61871457445593</v>
       </c>
       <c r="J23">
-        <v>9.489215708822121</v>
+        <v>5.218721363016918</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.59643074289298</v>
+        <v>8.694199993760556</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.82922267225659</v>
+        <v>11.68972371946381</v>
       </c>
       <c r="O23">
-        <v>25.7149066502062</v>
+        <v>18.23266555639725</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.20911521068522</v>
+        <v>25.1951463125667</v>
       </c>
       <c r="C24">
-        <v>8.776327932704849</v>
+        <v>13.65768219723004</v>
       </c>
       <c r="D24">
-        <v>8.250808854610938</v>
+        <v>5.389923918371001</v>
       </c>
       <c r="E24">
-        <v>12.28341647590803</v>
+        <v>7.055827373491663</v>
       </c>
       <c r="F24">
-        <v>33.73793221502814</v>
+        <v>24.59612172842757</v>
       </c>
       <c r="I24">
-        <v>24.43989159194389</v>
+        <v>14.64727127708208</v>
       </c>
       <c r="J24">
-        <v>9.519099563090203</v>
+        <v>5.302707752338928</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.55217345770135</v>
+        <v>8.324737143897488</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.89586624897873</v>
+        <v>11.88552073233799</v>
       </c>
       <c r="O24">
-        <v>25.76251022883805</v>
+        <v>17.72393385678943</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.39225837097892</v>
+        <v>22.80064610469216</v>
       </c>
       <c r="C25">
-        <v>8.22644019292348</v>
+        <v>12.54830884635853</v>
       </c>
       <c r="D25">
-        <v>8.242693582126648</v>
+        <v>5.214124707368001</v>
       </c>
       <c r="E25">
-        <v>12.32725174165337</v>
+        <v>7.08667988622374</v>
       </c>
       <c r="F25">
-        <v>33.77740024798908</v>
+        <v>23.6650933026539</v>
       </c>
       <c r="I25">
-        <v>24.60060289914231</v>
+        <v>14.74437354220697</v>
       </c>
       <c r="J25">
-        <v>9.55379900650971</v>
+        <v>5.397112360024408</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.50957929675196</v>
+        <v>7.919643820523074</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.9743963012453</v>
+        <v>12.11131686321277</v>
       </c>
       <c r="O25">
-        <v>25.83607082150789</v>
+        <v>17.23498053604444</v>
       </c>
     </row>
   </sheetData>
